--- a/fichiers excel/comparaison_charghi_heuristic_ga.xlsx
+++ b/fichiers excel/comparaison_charghi_heuristic_ga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taieb\Algo_genetique\fichiers excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Algo_genetique\fichiers excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7590B-70BD-4ED6-8F81-55C25B39D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263071D-7E55-4678-851E-BEBC166DF765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4E89BA2-F8B2-4FDE-8A90-9CBD21F68235}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D4E89BA2-F8B2-4FDE-8A90-9CBD21F68235}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Instance</t>
   </si>
@@ -171,9 +168,6 @@
     <t>inst_11_3_7.txt</t>
   </si>
   <si>
-    <t>498.6</t>
-  </si>
-  <si>
     <t>inst_12_1_7.txt</t>
   </si>
   <si>
@@ -186,21 +180,12 @@
     <t>inst_20_10_15.txt</t>
   </si>
   <si>
-    <t>801.2</t>
-  </si>
-  <si>
     <t>inst_20_7_15.txt</t>
   </si>
   <si>
-    <t>772.6</t>
-  </si>
-  <si>
     <t>inst_30_10_20.txt</t>
   </si>
   <si>
-    <t>1284.8</t>
-  </si>
-  <si>
     <t>inst_30_15_20.txt</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
     <t>inst_30_7_20.txt</t>
   </si>
   <si>
-    <t>1279.8</t>
-  </si>
-  <si>
     <t>401.4</t>
   </si>
   <si>
@@ -220,6 +202,18 @@
   </si>
   <si>
     <t>GAP (ga -heuristic F2)</t>
+  </si>
+  <si>
+    <t>% Difference(F1_GA_MOVNSSA)</t>
+  </si>
+  <si>
+    <t>% Difference(F1_GA_MOVNSTS)</t>
+  </si>
+  <si>
+    <t>% Difference(F2_GA_MOVNSSA)</t>
+  </si>
+  <si>
+    <t>% Difference(F2_GA_MOVNSTS)</t>
   </si>
 </sst>
 </file>
@@ -309,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,13 +601,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2B2E75-8582-4D15-B38D-AC300AA8CF9E}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="22.08984375" customWidth="1"/>
+    <col min="16" max="16" width="20.90625" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" customWidth="1"/>
+    <col min="18" max="18" width="21.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,15 +651,23 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -669,7 +677,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -714,10 +722,22 @@
         <f>OR(E2&lt;J2, E2&lt;L2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="O2" s="1">
+        <f>(D2 - I2) / I2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2 - K2) / K2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2 - J2) / J2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(E2 - L2) / L2</f>
+        <v>0</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -727,7 +747,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -765,17 +785,29 @@
         <v>136</v>
       </c>
       <c r="M3" s="1" t="b">
-        <f t="shared" ref="M2:M33" si="0">OR(D3&lt;I3, D3&lt;K3)</f>
+        <f t="shared" ref="M3:M33" si="0">OR(D3&lt;I3, D3&lt;K3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="1" t="b">
         <f t="shared" ref="N3:N33" si="1">OR(E3&lt;J3, E3&lt;L3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O33" si="2">(D3 - I3) / I3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P33" si="3">(D3 - K3) / K3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q33" si="4">(E3 - J3) / J3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R2:R33" si="5">(E3 - L3) / L3</f>
+        <v>0</v>
+      </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -785,7 +817,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -820,20 +852,32 @@
         <v>1542</v>
       </c>
       <c r="L4" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="M4" s="1" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>OR(E4&lt;J4, E4&lt;L4)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>(E4 - J4) / J4</f>
+        <v>-2.7027027027027029E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.7027027027027029E-2</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -843,7 +887,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -885,13 +929,25 @@
         <v>1</v>
       </c>
       <c r="N5" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+        <f>OR(E5&lt;J5, E5&lt;L5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.59128065395095364</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.59128065395095364</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5773195876288658E-2</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -901,7 +957,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -943,13 +999,25 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>OR(E6&lt;J6, E6&lt;L6)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4466666666666668</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4466666666666668</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.0402010050251257E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.0402010050251257E-2</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -959,7 +1027,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1004,10 +1072,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1542056074766355</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1542056074766355</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1017,7 +1097,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1062,10 +1142,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.25E-2</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1075,7 +1167,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1120,10 +1212,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9180327868852458E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9180327868852458E-2</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1133,7 +1237,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1178,10 +1282,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1191,7 +1307,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1236,10 +1352,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.21985815602836881</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.23344947735191637</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1249,7 +1377,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1294,10 +1422,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.17320261437908496</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.17320261437908496</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1307,7 +1447,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1352,10 +1492,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0238907849829351E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0238907849829351E-2</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1365,7 +1517,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1410,10 +1562,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.9304029304029304E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.9304029304029304E-2</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1423,7 +1587,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1468,10 +1632,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.1272084805653705E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.1272084805653705E-2</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1481,7 +1657,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1526,10 +1702,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15119047619047618</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15119047619047618</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2028469750889681E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2028469750889681E-2</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1539,7 +1727,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -1573,8 +1761,8 @@
       <c r="K17" s="1">
         <v>891</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>28</v>
+      <c r="L17" s="1">
+        <v>360.2</v>
       </c>
       <c r="M17" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1584,10 +1772,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.13165266106442577</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.13936701832315376</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1597,7 +1797,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -1625,8 +1825,8 @@
       <c r="I18" s="1">
         <v>1650</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>30</v>
+      <c r="J18" s="1">
+        <v>355.8</v>
       </c>
       <c r="K18" s="1">
         <v>1650</v>
@@ -1642,10 +1842,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.1922428330522797E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.9180327868852458E-2</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1655,7 +1867,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -1683,14 +1895,14 @@
       <c r="I19" s="1">
         <v>2331</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>32</v>
+      <c r="J19" s="1">
+        <v>372.8</v>
       </c>
       <c r="K19" s="1">
         <v>2331</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>33</v>
+      <c r="L19" s="1">
+        <v>374.8</v>
       </c>
       <c r="M19" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1700,10 +1912,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.1158798283261831E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.6168623265741758E-2</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1713,7 +1937,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -1758,10 +1982,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.19953596287703015</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.20871559633027523</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -1771,7 +2007,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -1805,8 +2041,8 @@
       <c r="K21" s="1">
         <v>2098</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>36</v>
+      <c r="L21" s="1">
+        <v>394.2</v>
       </c>
       <c r="M21" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1816,10 +2052,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.826530612244898E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.3632673769660041E-2</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -1829,7 +2077,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1857,14 +2105,14 @@
       <c r="I22" s="1">
         <v>3102</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>38</v>
+      <c r="J22" s="1">
+        <v>422.6</v>
       </c>
       <c r="K22" s="1">
         <v>3102</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>39</v>
+      <c r="L22" s="1">
+        <v>425.6</v>
       </c>
       <c r="M22" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1874,10 +2122,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.51869380028401E-3</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.5507518796992534E-2</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1887,7 +2147,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -1932,10 +2192,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.21428571428571427</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.21428571428571427</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -1945,7 +2217,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>11</v>
       </c>
@@ -1979,8 +2251,8 @@
       <c r="K24" s="1">
         <v>1876</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>42</v>
+      <c r="L24" s="1">
+        <v>406.2</v>
       </c>
       <c r="M24" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1990,10 +2262,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="R24" s="1">
+        <f>(E24 - L24) / L24</f>
+        <v>-5.9576563269325429E-2</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2003,7 +2287,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>11</v>
       </c>
@@ -2037,8 +2321,8 @@
       <c r="K25" s="1">
         <v>3699</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>44</v>
+      <c r="L25" s="1">
+        <v>498.6</v>
       </c>
       <c r="M25" s="1" t="b">
         <f t="shared" si="0"/>
@@ -2048,10 +2332,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.44795890781292241</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.44795890781292241</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.18787878787878787</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.19374247894103494</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2061,12 +2357,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2">
         <v>1223</v>
@@ -2106,10 +2402,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.16599190283400811</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.16767676767676767</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2119,12 +2427,12 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2">
         <v>1566</v>
@@ -2164,10 +2472,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.10821643286573146</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.10821643286573146</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -2177,12 +2497,12 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2">
         <v>2072</v>
@@ -2211,8 +2531,8 @@
       <c r="K28" s="1">
         <v>3699</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>44</v>
+      <c r="L28" s="1">
+        <v>498.6</v>
       </c>
       <c r="M28" s="1" t="b">
         <f t="shared" si="0"/>
@@ -2222,10 +2542,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.8989898989898989E-2</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.10549538708383478</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -2235,12 +2567,12 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>4026</v>
@@ -2263,8 +2595,8 @@
       <c r="I29" s="1">
         <v>7338</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>49</v>
+      <c r="J29" s="1">
+        <v>801.2</v>
       </c>
       <c r="K29" s="1">
         <v>7338</v>
@@ -2280,10 +2612,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.10883674488267604</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.9896907216494839E-2</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -2293,12 +2637,12 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2">
         <v>2880</v>
@@ -2321,8 +2665,8 @@
       <c r="I30" s="1">
         <v>5001</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>51</v>
+      <c r="J30" s="1">
+        <v>772.6</v>
       </c>
       <c r="K30" s="1">
         <v>5001</v>
@@ -2338,10 +2682,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.6308568470100988E-2</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -2351,12 +2707,12 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2">
         <v>3816</v>
@@ -2379,8 +2735,8 @@
       <c r="I31" s="1">
         <v>6401</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>53</v>
+      <c r="J31" s="1">
+        <v>1284.8</v>
       </c>
       <c r="K31" s="1">
         <v>6401</v>
@@ -2396,10 +2752,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.1095890410958867E-2</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5811823480432972E-2</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -2409,12 +2777,12 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
         <v>5316</v>
@@ -2437,8 +2805,8 @@
       <c r="I32" s="1">
         <v>9529</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>55</v>
+      <c r="J32" s="1">
+        <v>1220.4000000000001</v>
       </c>
       <c r="K32" s="1">
         <v>9529</v>
@@ -2454,10 +2822,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.537856440511315E-2</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.5989847715736044E-2</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -2467,12 +2847,12 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
         <v>3169</v>
@@ -2495,8 +2875,8 @@
       <c r="I33" s="1">
         <v>5081</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>57</v>
+      <c r="J33" s="1">
+        <v>1279.8</v>
       </c>
       <c r="K33" s="1">
         <v>5081</v>
@@ -2512,10 +2892,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.7815283638068412E-2</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3717105263157895E-2</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -2525,7 +2917,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2553,7 +2945,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2581,7 +2973,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2609,7 +3001,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2637,7 +3029,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2665,7 +3057,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2678,7 +3070,7 @@
         <v>9529</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K39" s="1">
         <v>9529</v>
@@ -2701,7 +3093,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2729,7 +3121,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2757,7 +3149,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2785,7 +3177,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2813,7 +3205,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2841,7 +3233,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2869,7 +3261,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2897,7 +3289,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2925,7 +3317,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2953,7 +3345,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2981,7 +3373,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3009,7 +3401,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3037,7 +3429,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3065,7 +3457,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3093,7 +3485,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3121,7 +3513,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3149,7 +3541,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3177,7 +3569,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3205,7 +3597,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3233,7 +3625,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3261,7 +3653,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3289,7 +3681,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3317,7 +3709,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3345,7 +3737,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3373,7 +3765,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3401,7 +3793,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3429,7 +3821,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3457,7 +3849,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3485,7 +3877,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3513,7 +3905,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3541,7 +3933,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3569,7 +3961,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3597,7 +3989,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3625,7 +4017,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3653,7 +4045,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3681,7 +4073,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3709,7 +4101,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3737,7 +4129,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3769,7 +4161,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3805,7 +4197,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3841,7 +4233,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3877,7 +4269,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3913,7 +4305,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3949,7 +4341,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3985,7 +4377,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4021,7 +4413,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4057,7 +4449,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4093,7 +4485,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4129,7 +4521,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4165,7 +4557,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4201,7 +4593,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4237,7 +4629,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4273,7 +4665,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4309,7 +4701,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4345,7 +4737,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4381,7 +4773,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4417,7 +4809,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4453,7 +4845,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4489,7 +4881,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4525,7 +4917,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4561,7 +4953,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4574,7 +4966,7 @@
         <v>2042</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K100" s="1">
         <v>2042</v>
